--- a/phonetics.xlsx
+++ b/phonetics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="声符" sheetId="1" r:id="rId1"/>
@@ -2091,7 +2091,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3616,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3960,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
